--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E111FF1D-213B-4A3D-9E78-EE83502189A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CA5D0-D063-4BA3-87DA-8C9009598007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
@@ -3971,7 +3971,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3985,7 +3985,8 @@
     <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="26.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CA5D0-D063-4BA3-87DA-8C9009598007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A53151-3B6B-4932-9810-89C71CF797D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
+    <workbookView xWindow="2760" yWindow="2070" windowWidth="23880" windowHeight="11385" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="784">
   <si>
     <t>Short Label</t>
   </si>
@@ -3575,6 +3575,36 @@
   </si>
   <si>
     <t>Gross National Income and Gross Domestic Product by Expenditure Shares At Constant Prices</t>
+  </si>
+  <si>
+    <t>Mining and quarrying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Industry At Constant Prices</t>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Industry At Current Prices</t>
+  </si>
+  <si>
+    <t>Electricity, steam, water and waste management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3968,10 +3998,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4852,6 +4882,12 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
@@ -4878,6 +4914,12 @@
       <c r="I28" t="s">
         <v>25</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
@@ -4904,6 +4946,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
@@ -4930,6 +4978,12 @@
       <c r="I30" t="s">
         <v>25</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
@@ -4956,6 +5010,12 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
@@ -4982,8 +5042,14 @@
       <c r="I32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -5008,8 +5074,14 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>761</v>
       </c>
@@ -5034,8 +5106,14 @@
       <c r="I34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -5060,8 +5138,14 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -5086,8 +5170,14 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5112,8 +5202,14 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5138,8 +5234,14 @@
       <c r="I38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5164,8 +5266,14 @@
       <c r="I39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -5189,6 +5297,12 @@
       </c>
       <c r="I40" t="s">
         <v>25</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A53151-3B6B-4932-9810-89C71CF797D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B0D64-685F-41AA-A30B-E48CFB89E29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2070" windowWidth="23880" windowHeight="11385" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="W" sheetId="4" r:id="rId4"/>
     <sheet name="D" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">M!$A$1:$K$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q!$A$1:$K$82</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="824">
   <si>
     <t>Short Label</t>
   </si>
@@ -3604,6 +3608,154 @@
   </si>
   <si>
     <t>Electricity, steam, water and waste management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net primary income from the rest of the world</t>
+  </si>
+  <si>
+    <t>Household final consumption expenditure</t>
+  </si>
+  <si>
+    <t>Gross capital formation</t>
+  </si>
+  <si>
+    <t>Imports of goods and services</t>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Expenditure Shares At Current Prices Q</t>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Expenditure Shares At Current Prices Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net primary income from the rest of the world</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross National Income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Household final consumption expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross capital formation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changes in inventories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Expenditure Shares At Constant Prices Q</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Industry At Current Prices Q</t>
+  </si>
+  <si>
+    <t>Gross National Income and Gross Domestic Product by Industry At Constant Prices Q</t>
+  </si>
+  <si>
+    <t>Government final consumption expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exports of goods and services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding stocks and orchard development</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public administration and defense; compulsory social activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coconut including copra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugarcane including muscovado sugar-making in the farm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livestock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poultry and egg production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishing and aquaculture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forestry and logging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support activities to agriculture, forestry and fishing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Value Added in Agriculture Forestry and Fishing At Current Prices Q</t>
+  </si>
+  <si>
+    <t>Gross Value Added in Agriculture Forestry and Fishing At Constant Prices Q</t>
+  </si>
+  <si>
+    <t>Other agricultural crops, nec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Capita Gross Domestic Product at current prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Capita Gross National Income at current prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Capita Household Final Consumption Expenditure at current prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Capita Gross National Income at constant prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Capita Household Final Consumption Expenditure at constant prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Capita Gross Domestic Product Gross National Income and Household Final Consumption Expenditure Q</t>
+  </si>
+  <si>
+    <t>Per Capita Gross Domestic Product at constant prices</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3997,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A9D6BE-ECF2-48BD-A098-05F1DE8F2529}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5316,10 +5468,10 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5535,6 +5687,12 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -5561,6 +5719,12 @@
       <c r="I8" t="s">
         <v>25</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -5587,6 +5751,12 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -5613,6 +5783,12 @@
       <c r="I10" t="s">
         <v>25</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -5639,6 +5815,12 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -5665,6 +5847,12 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -5691,6 +5879,12 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -5717,6 +5911,12 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -5743,6 +5943,12 @@
       <c r="I15" t="s">
         <v>25</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -5769,8 +5975,14 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -5795,8 +6007,14 @@
       <c r="I17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -5821,8 +6039,14 @@
       <c r="I18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>212</v>
       </c>
@@ -5847,8 +6071,14 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -5873,8 +6103,14 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -5899,8 +6135,14 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -5925,8 +6167,14 @@
       <c r="I22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>762</v>
       </c>
@@ -5951,8 +6199,14 @@
       <c r="I23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -5977,8 +6231,14 @@
       <c r="I24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>229</v>
       </c>
@@ -6003,8 +6263,14 @@
       <c r="I25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -6029,8 +6295,14 @@
       <c r="I26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -6055,8 +6327,14 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -6081,8 +6359,14 @@
       <c r="I28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>242</v>
       </c>
@@ -6107,8 +6391,14 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>763</v>
       </c>
@@ -6133,8 +6423,14 @@
       <c r="I30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -6159,8 +6455,14 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -6185,8 +6487,14 @@
       <c r="I32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -6211,8 +6519,14 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>256</v>
       </c>
@@ -6237,8 +6551,14 @@
       <c r="I34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>259</v>
       </c>
@@ -6263,8 +6583,14 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>262</v>
       </c>
@@ -6289,8 +6615,14 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>265</v>
       </c>
@@ -6315,8 +6647,14 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>269</v>
       </c>
@@ -6341,8 +6679,14 @@
       <c r="I38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>273</v>
       </c>
@@ -6367,8 +6711,14 @@
       <c r="I39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>276</v>
       </c>
@@ -6393,8 +6743,14 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>279</v>
       </c>
@@ -6419,8 +6775,14 @@
       <c r="I41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -6445,8 +6807,14 @@
       <c r="I42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>285</v>
       </c>
@@ -6471,8 +6839,14 @@
       <c r="I43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>288</v>
       </c>
@@ -6497,8 +6871,14 @@
       <c r="I44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>291</v>
       </c>
@@ -6523,8 +6903,14 @@
       <c r="I45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -6549,8 +6935,14 @@
       <c r="I46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>297</v>
       </c>
@@ -6575,8 +6967,14 @@
       <c r="I47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>764</v>
       </c>
@@ -6601,8 +6999,14 @@
       <c r="I48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -6627,8 +7031,14 @@
       <c r="I49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>305</v>
       </c>
@@ -6653,8 +7063,14 @@
       <c r="I50" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -6679,8 +7095,14 @@
       <c r="I51" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>311</v>
       </c>
@@ -6705,8 +7127,14 @@
       <c r="I52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6731,8 +7159,14 @@
       <c r="I53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>317</v>
       </c>
@@ -6757,8 +7191,14 @@
       <c r="I54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>320</v>
       </c>
@@ -6783,8 +7223,14 @@
       <c r="I55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>323</v>
       </c>
@@ -6809,8 +7255,14 @@
       <c r="I56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>326</v>
       </c>
@@ -6835,8 +7287,14 @@
       <c r="I57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>765</v>
       </c>
@@ -6861,8 +7319,14 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>331</v>
       </c>
@@ -6887,8 +7351,14 @@
       <c r="I59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>334</v>
       </c>
@@ -6913,8 +7383,14 @@
       <c r="I60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>338</v>
       </c>
@@ -6939,8 +7415,14 @@
       <c r="I61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>342</v>
       </c>
@@ -6965,8 +7447,14 @@
       <c r="I62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>345</v>
       </c>
@@ -6991,8 +7479,14 @@
       <c r="I63" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -7017,8 +7511,14 @@
       <c r="I64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>351</v>
       </c>
@@ -7043,8 +7543,14 @@
       <c r="I65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>354</v>
       </c>
@@ -7069,8 +7575,14 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -7095,8 +7607,14 @@
       <c r="I67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>360</v>
       </c>
@@ -7121,8 +7639,14 @@
       <c r="I68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>363</v>
       </c>
@@ -7147,8 +7671,14 @@
       <c r="I69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -7173,8 +7703,14 @@
       <c r="I70" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>369</v>
       </c>
@@ -7199,8 +7735,14 @@
       <c r="I71" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -7225,8 +7767,14 @@
       <c r="I72" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>375</v>
       </c>
@@ -7251,8 +7799,14 @@
       <c r="I73" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>766</v>
       </c>
@@ -7277,8 +7831,14 @@
       <c r="I74" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>380</v>
       </c>
@@ -7303,8 +7863,14 @@
       <c r="I75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>383</v>
       </c>
@@ -7329,8 +7895,14 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>386</v>
       </c>
@@ -7355,8 +7927,14 @@
       <c r="I77" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>389</v>
       </c>
@@ -7381,8 +7959,14 @@
       <c r="I78" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>392</v>
       </c>
@@ -7407,8 +7991,14 @@
       <c r="I79" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>395</v>
       </c>
@@ -7433,8 +8023,14 @@
       <c r="I80" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>398</v>
       </c>
@@ -7459,8 +8055,14 @@
       <c r="I81" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>401</v>
       </c>
@@ -7484,6 +8086,12 @@
       </c>
       <c r="I82" t="s">
         <v>25</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -7494,10 +8102,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3164B3C4-164D-403B-9E9F-77D021E9ABD8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
@@ -7552,7 +8161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" t="s">
         <v>405</v>
       </c>
@@ -7578,7 +8187,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
         <v>409</v>
       </c>
@@ -7604,7 +8213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -7630,7 +8239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -7656,7 +8265,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" t="s">
         <v>421</v>
       </c>
@@ -7682,7 +8291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" t="s">
         <v>424</v>
       </c>
@@ -7708,7 +8317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" t="s">
         <v>427</v>
       </c>
@@ -7734,7 +8343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" t="s">
         <v>430</v>
       </c>
@@ -7760,7 +8369,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" t="s">
         <v>433</v>
       </c>
@@ -7786,7 +8395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" t="s">
         <v>767</v>
       </c>
@@ -7812,7 +8421,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" t="s">
         <v>439</v>
       </c>
@@ -7838,7 +8447,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" t="s">
         <v>442</v>
       </c>
@@ -7864,7 +8473,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" t="s">
         <v>445</v>
       </c>
@@ -7890,7 +8499,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>449</v>
       </c>
@@ -7916,7 +8525,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
         <v>452</v>
       </c>
@@ -7942,7 +8551,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" t="s">
         <v>455</v>
       </c>
@@ -7968,7 +8577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -7994,7 +8603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" t="s">
         <v>462</v>
       </c>
@@ -8020,7 +8629,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8046,7 +8655,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" t="s">
         <v>468</v>
       </c>
@@ -8072,7 +8681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -8098,7 +8707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -8124,7 +8733,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" t="s">
         <v>480</v>
       </c>
@@ -8150,7 +8759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" t="s">
         <v>484</v>
       </c>
@@ -8176,7 +8785,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" t="s">
         <v>488</v>
       </c>
@@ -8202,7 +8811,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -8228,7 +8837,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" t="s">
         <v>497</v>
       </c>
@@ -8341,7 +8950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
         <v>512</v>
       </c>
@@ -9411,7 +10020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" t="s">
         <v>635</v>
       </c>
@@ -9437,7 +10046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" t="s">
         <v>639</v>
       </c>
@@ -9463,7 +10072,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" t="s">
         <v>642</v>
       </c>
@@ -9489,7 +10098,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" t="s">
         <v>645</v>
       </c>
@@ -9570,7 +10179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" t="s">
         <v>656</v>
       </c>
@@ -9596,7 +10205,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" t="s">
         <v>660</v>
       </c>
@@ -9622,7 +10231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" t="s">
         <v>664</v>
       </c>
@@ -9648,7 +10257,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" t="s">
         <v>668</v>
       </c>
@@ -9674,7 +10283,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" t="s">
         <v>671</v>
       </c>
@@ -9700,7 +10309,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" t="s">
         <v>675</v>
       </c>
@@ -9726,7 +10335,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" t="s">
         <v>679</v>
       </c>
@@ -9781,7 +10390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" t="s">
         <v>687</v>
       </c>
@@ -9807,7 +10416,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" t="s">
         <v>690</v>
       </c>
@@ -9833,7 +10442,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" t="s">
         <v>694</v>
       </c>
@@ -9859,7 +10468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" t="s">
         <v>697</v>
       </c>
@@ -9885,7 +10494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" t="s">
         <v>774</v>
       </c>
@@ -10170,6 +10779,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K96" xr:uid="{3164B3C4-164D-403B-9E9F-77D021E9ABD8}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Philippine Statistics Authority (PSA)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B0D64-685F-41AA-A30B-E48CFB89E29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957CCC4-29FB-44C3-BADD-7A64A5E27508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="839">
   <si>
     <t>Short Label</t>
   </si>
@@ -3756,6 +3756,59 @@
   </si>
   <si>
     <t>Per Capita Gross Domestic Product at constant prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Price Index for All Income Households by Commodity Group</t>
+  </si>
+  <si>
+    <t>PHILIPPINESALL ITEMS</t>
+  </si>
+  <si>
+    <t>NCRALL ITEMS</t>
+  </si>
+  <si>
+    <t>PHILIPPINESNON-FOOD</t>
+  </si>
+  <si>
+    <t>ALL ITEMS</t>
+  </si>
+  <si>
+    <t>General Retail Price Index in the National Capital Region</t>
+  </si>
+  <si>
+    <t>General Wholesale Price Index by Commodity Group</t>
+  </si>
+  <si>
+    <t>ALL ITEMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEVERAGES AND TOBACCO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUDE MATERIALS, INEDIBLE EXCEPT FUELS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINERAL FUELS, LUBRICANTS AND RELATED MATERIALS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURED GOODS CLASSIFIED CHIEFLY BY MATERIALS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY AND TRANSPORT EQUIPMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEMICALS INCL ANIMAL &amp; VEGETABLE OILS &amp; FATS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8106,10 +8159,10 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomRight" activeCell="K88" sqref="K88:K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8551,7 +8604,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" t="s">
         <v>455</v>
       </c>
@@ -8577,7 +8630,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -8603,7 +8656,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
         <v>462</v>
       </c>
@@ -8629,7 +8682,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" t="s">
         <v>768</v>
       </c>
@@ -8655,7 +8708,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" t="s">
         <v>468</v>
       </c>
@@ -8681,7 +8734,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -8707,7 +8760,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -8733,7 +8786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" t="s">
         <v>480</v>
       </c>
@@ -8759,7 +8812,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" t="s">
         <v>484</v>
       </c>
@@ -8785,7 +8838,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" t="s">
         <v>488</v>
       </c>
@@ -8811,7 +8864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -8837,7 +8890,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" t="s">
         <v>497</v>
       </c>
@@ -8863,7 +8916,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>501</v>
       </c>
@@ -8891,8 +8944,14 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>504</v>
       </c>
@@ -8920,8 +8979,14 @@
       <c r="I30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -8949,8 +9014,14 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1">
+      <c r="J31" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" t="s">
         <v>512</v>
       </c>
@@ -10335,7 +10406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" t="s">
         <v>679</v>
       </c>
@@ -10361,7 +10432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>683</v>
       </c>
@@ -10389,8 +10460,14 @@
       <c r="I82" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1">
+      <c r="J82" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" t="s">
         <v>687</v>
       </c>
@@ -10416,7 +10493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" t="s">
         <v>690</v>
       </c>
@@ -10442,7 +10519,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" t="s">
         <v>694</v>
       </c>
@@ -10468,7 +10545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" t="s">
         <v>697</v>
       </c>
@@ -10494,7 +10571,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" t="s">
         <v>774</v>
       </c>
@@ -10520,7 +10597,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>702</v>
       </c>
@@ -10548,8 +10625,14 @@
       <c r="I88" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>706</v>
       </c>
@@ -10577,8 +10660,14 @@
       <c r="I89" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>709</v>
       </c>
@@ -10606,8 +10695,14 @@
       <c r="I90" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>713</v>
       </c>
@@ -10635,8 +10730,14 @@
       <c r="I91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>717</v>
       </c>
@@ -10664,8 +10765,14 @@
       <c r="I92" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>720</v>
       </c>
@@ -10693,8 +10800,14 @@
       <c r="I93" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>724</v>
       </c>
@@ -10722,8 +10835,14 @@
       <c r="I94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>728</v>
       </c>
@@ -10751,8 +10870,14 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>731</v>
       </c>

--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957CCC4-29FB-44C3-BADD-7A64A5E27508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EAAE46-E54F-408F-A5A7-7169FA2E9639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="886">
   <si>
     <t>Short Label</t>
   </si>
@@ -721,9 +721,6 @@
     <t>JPSHARE_PH.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -744,9 +741,6 @@
     <t>Central Bank of the Philippines (BSP)</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Medium and Long Term (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Long-Term</t>
   </si>
   <si>
@@ -761,9 +755,6 @@
     <t>PHLGVDX0002.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Short Term (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Short-Term</t>
   </si>
   <si>
@@ -778,9 +769,6 @@
     <t>PHLGVDX0003.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Short Term, Non Trade (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Gross External Debt, Short Term, Non Trade (BPM6) (US Dollars)
@@ -1888,9 +1876,6 @@
   </si>
   <si>
     <t>PHLNIA0146.Q</t>
-  </si>
-  <si>
-    <t>External Sector, Balance of Payments, Current Account, Balance (BPM6) (US Dollars), NSA - Philippines</t>
   </si>
   <si>
     <t>Current Account</t>
@@ -1908,9 +1893,6 @@
     <t>PHLBOP0001.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Goods and Services, Balance (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Goods and Services</t>
   </si>
   <si>
@@ -1926,9 +1908,6 @@
     <t>PHLBOP0002.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Goods and Services, Export (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -1943,9 +1922,6 @@
     <t>PHLBOP0003.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Goods and Services, Import (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Debit</t>
   </si>
   <si>
@@ -1960,9 +1936,6 @@
     <t>PHLBOP0004.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Goods, Balance (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Goods</t>
   </si>
   <si>
@@ -1977,9 +1950,6 @@
     <t>PHLBOP0005.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Goods, Credit, Exports (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Goods, Credit, Exports (BPM6) (US Dollars)
@@ -1991,9 +1961,6 @@
     <t>PHLBOP0006.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Goods, Debit, Imports (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Goods, Debit, Imports (BPM6) (US Dollars)
@@ -2005,9 +1972,6 @@
     <t>PHLBOP0007.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Services, Balance (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Services, Balance (BPM6) (US Dollars)
@@ -2019,9 +1983,6 @@
     <t>PHLBOP0008.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Services, Credit, Exports (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Services, Credit, Exports (BPM6) (US Dollars)
@@ -2033,18 +1994,12 @@
     <t>PHLBOP0009.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Services, Debit, Imports (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Services, Debit, Imports (BPM6) (US Dollars)
 Units: Millions of US Dollars, NSA
 Source: Bangko Sentral ng Pilipinas (Central Bank of the Republic of Philippines)
 www.bsp.gov.ph</t>
-  </si>
-  <si>
-    <t>External Sector, Balance of Payments, Current Account, Primary Income, Balance (BPM6) (US Dollars), NSA - Philippines</t>
   </si>
   <si>
     <t>Primary Income</t>
@@ -2062,9 +2017,6 @@
     <t>PHLBOP0011.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Primary Income, Credit, Receipts (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Primary Income, Credit, Receipts (BPM6) (US Dollars)
@@ -2077,9 +2029,6 @@
     <t>PHLBOP0012.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Primary Income, Debit, Payments (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Primary Income, Debit, Payments (BPM6) (US Dollars)
@@ -2092,9 +2041,6 @@
     <t>PHLBOP0013.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Secondary Income, Balance (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Secondary Income</t>
   </si>
   <si>
@@ -2110,9 +2056,6 @@
     <t>PHLBOP0014.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Secondary Income, Credit, Receipts (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Secondary Income, Credit, Receipts (BPM6) (US Dollars)
@@ -2125,9 +2068,6 @@
     <t>PHLBOP0015.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Current Account, Secondary Income, Debit, Payments (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Current Account, Secondary Income, Debit, Payments (BPM6) (US Dollars)
@@ -2140,9 +2080,6 @@
     <t>PHLBOP0016.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Capital Account, Balance (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Capital Account</t>
   </si>
   <si>
@@ -2158,9 +2095,6 @@
     <t>PHLBOP0018.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Capital Account, Credit, Receipts (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Capital Account, Credit, Receipts (BPM6) (US Dollars)
@@ -2172,18 +2106,12 @@
     <t>PHLBOP0019.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Capital Account, Debit, Payments (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 Balance of Payments, Capital Account, Debit, Payments (BPM6) (US Dollars)
 Units: Millions of US Dollars, NSA
 Source: Bangko Sentral ng Pilipinas (Central Bank of the Republic of Philippines)
 www.bsp.gov.ph</t>
-  </si>
-  <si>
-    <t>External Sector, Balance of Payments, Financial Account, Balance (BPM6) (US Dollars), NSA - Philippines</t>
   </si>
   <si>
     <t>Financial Account</t>
@@ -2201,9 +2129,6 @@
     <t>PHLBOP0021.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Financial Account, Direct Investment, Balance (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Direct Investment</t>
   </si>
   <si>
@@ -2219,9 +2144,6 @@
     <t>PHLBOP0022.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Financial Account, Direct investment, Net Acquisition of Financial Assets (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Net Acquisition of Financial Assets</t>
   </si>
   <si>
@@ -2237,9 +2159,6 @@
     <t>PHLBOP0023.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Financial Account, Direct Investment, Net Incurrence of Liabilities (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Net Incurrence of Liabilities</t>
   </si>
   <si>
@@ -2255,9 +2174,6 @@
     <t>PHLBOP0024.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Overall Balance of Payments Position (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Overall Balance</t>
   </si>
   <si>
@@ -2273,9 +2189,6 @@
     <t>PHLBOP0035.M</t>
   </si>
   <si>
-    <t>External Sector, Balance of Payments, Personal Remittances, of which, of Cash Remittances Channeled through the Banking System (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Personal Transfers</t>
   </si>
   <si>
@@ -3029,9 +2942,6 @@
     <t>PHLIR0017.M</t>
   </si>
   <si>
-    <t>Merchandise Trade, Imports, Unites States of America including Alaska and Hawaii, Value (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>T-Z</t>
   </si>
   <si>
@@ -3059,9 +2969,6 @@
   </si>
   <si>
     <t>PHLPPI0001.M</t>
-  </si>
-  <si>
-    <t>External Sector, Gross International Reserves (End of Period) (BPM6) (US Dollars), NSA - Philippines</t>
   </si>
   <si>
     <t>Offical Reserve Assets</t>
@@ -3079,9 +2986,6 @@
     <t>PHLRES0001.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Gold (End of Period) (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -3097,9 +3001,6 @@
     <t>PHLRES0003.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Special Drawing Rights (End of Period) (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Special Drawing Rights</t>
   </si>
   <si>
@@ -3115,9 +3016,6 @@
     <t>PHLRES0004.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Foreign Investments (End of Period) (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Foreign Currency Reserves</t>
   </si>
   <si>
@@ -3133,9 +3031,6 @@
     <t>PHLRES0005.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Foreign Exchange (End of Period) (BPM6) (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 External Sector
 International Reserves, Foreign Exchange (End of Period) (BPM6) (US Dollars)
@@ -3404,9 +3299,6 @@
     <t>PHLWPI008.M</t>
   </si>
   <si>
-    <t>Merchandise Trade, Exports, Unites States of America including Alaska and Hawaii, Value (US Dollars), NSA - Philippines</t>
-  </si>
-  <si>
     <t>Philippines
 Merchandise Trade
 Exports, Unites States of America including Alaska and Hawaii, Value (US Dollars)
@@ -3810,6 +3702,277 @@
   <si>
     <t>CHEMICALS INCL ANIMAL &amp; VEGETABLE OILS &amp; FATS</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURING</t>
+  </si>
+  <si>
+    <t>Manufacture of food products</t>
+  </si>
+  <si>
+    <t>Manufacture of beverages</t>
+  </si>
+  <si>
+    <t>Manufacture of textiles</t>
+  </si>
+  <si>
+    <t>Manufacture of paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and reproduction of recorded media</t>
+  </si>
+  <si>
+    <t>Manufacture of coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Manufacture of chemical and chemical products</t>
+  </si>
+  <si>
+    <t>Manufacture of rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>Manufacture of fabricated metal products, except machinery and equipment</t>
+  </si>
+  <si>
+    <t>Manufacture of machinery and equipment except electrical</t>
+  </si>
+  <si>
+    <t>Manufacture of electrical equipment</t>
+  </si>
+  <si>
+    <t>Manufacture of transport equipment</t>
+  </si>
+  <si>
+    <t>Manufacture of furniture</t>
+  </si>
+  <si>
+    <t>MANUFACTURING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of food products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of beverages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of tobacco products</t>
+  </si>
+  <si>
+    <t>Manufacture of tobacco products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of textiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of paper and paper products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printing and reproduction of recorded media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of coke and refined petroleum products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of chemical and chemical products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of rubber and plastic products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of other non-metallic mineral products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of basic metals</t>
+  </si>
+  <si>
+    <t>Manufacture of basic metals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of fabricated metal products, except machinery and equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of machinery and equipment except electrical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of electrical equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of transport equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of furniture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of Production Index</t>
+  </si>
+  <si>
+    <t>Manufacture of wood, bamboo, cane, rattan articles, and related products</t>
+  </si>
+  <si>
+    <t>Volume of Production Index</t>
+  </si>
+  <si>
+    <t>Producer Price Index</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Highlights of the Philippine Export and Import Statistics</t>
+  </si>
+  <si>
+    <t>By Type of Debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium and Long-Term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short-Term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Trade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extdebt</t>
+  </si>
+  <si>
+    <t>Central Bank of the Philippines (BSP)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Medium and Long Term (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Short Term (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Short Term, Non Trade (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Goods and Services, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Goods and Services, Export (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Goods and Services, Import (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Goods, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Goods, Credit, Exports (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Goods, Debit, Imports (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Services, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Services, Credit, Exports (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Services, Debit, Imports (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Primary Income, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Primary Income, Credit, Receipts (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Primary Income, Debit, Payments (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Secondary Income, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Secondary Income, Credit, Receipts (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Secondary Income, Debit, Payments (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Capital Account, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Capital Account, Credit, Receipts (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Capital Account, Debit, Payments (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Financial Account, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Financial Account, Direct Investment, Balance (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Financial Account, Direct investment, Net Acquisition of Financial Assets (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Financial Account, Direct Investment, Net Incurrence of Liabilities (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Overall Balance of Payments Position (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Personal Remittances, of which, of Cash Remittances Channeled through the Banking System (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, Gross International Reserves (End of Period) (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Gold (End of Period) (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Special Drawing Rights (End of Period) (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Foreign Investments (End of Period) (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Foreign Exchange (End of Period) (BPM6), NSA - Philippines</t>
+  </si>
+  <si>
+    <t>Merchandise Trade, Imports, Total, Value, NSA - Philippines</t>
+  </si>
+  <si>
+    <t>Merchandise Trade, Exports, Total, Value, NSA - Philippines</t>
   </si>
 </sst>
 </file>
@@ -4285,13 +4448,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4317,13 +4480,13 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4352,10 +4515,10 @@
         <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4384,10 +4547,10 @@
         <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4416,10 +4579,10 @@
         <v>25</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4448,10 +4611,10 @@
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4480,10 +4643,10 @@
         <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4512,10 +4675,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4544,15 +4707,15 @@
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -4576,10 +4739,10 @@
         <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4608,10 +4771,10 @@
         <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4640,10 +4803,10 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4672,10 +4835,10 @@
         <v>25</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4704,7 +4867,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>70</v>
@@ -4736,10 +4899,10 @@
         <v>25</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4768,10 +4931,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4800,10 +4963,10 @@
         <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4832,7 +4995,7 @@
         <v>25</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>35</v>
@@ -4840,7 +5003,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -4864,10 +5027,10 @@
         <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4896,10 +5059,10 @@
         <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4928,7 +5091,7 @@
         <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>47</v>
@@ -4960,10 +5123,10 @@
         <v>25</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4992,10 +5155,10 @@
         <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5024,7 +5187,7 @@
         <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>62</v>
@@ -5056,10 +5219,10 @@
         <v>25</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5088,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5120,10 +5283,10 @@
         <v>25</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5152,10 +5315,10 @@
         <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5184,10 +5347,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5216,10 +5379,10 @@
         <v>25</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5248,10 +5411,10 @@
         <v>25</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5280,15 +5443,15 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -5312,10 +5475,10 @@
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5344,10 +5507,10 @@
         <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5376,10 +5539,10 @@
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5408,10 +5571,10 @@
         <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5440,10 +5603,10 @@
         <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5472,10 +5635,10 @@
         <v>25</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5504,10 +5667,10 @@
         <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -5605,51 +5768,57 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>159</v>
-      </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>849</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
         <v>161</v>
       </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
-      </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
@@ -5657,24 +5826,30 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
         <v>159</v>
       </c>
-      <c r="I4" t="s">
-        <v>160</v>
+      <c r="J4" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>852</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -5683,25 +5858,31 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
         <v>159</v>
       </c>
-      <c r="I5" t="s">
-        <v>160</v>
+      <c r="J5" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>853</v>
       </c>
       <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
         <v>166</v>
       </c>
-      <c r="E6" t="s">
-        <v>170</v>
-      </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
@@ -5709,24 +5890,30 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" t="s">
         <v>159</v>
       </c>
-      <c r="I6" t="s">
-        <v>160</v>
+      <c r="J6" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -5741,24 +5928,24 @@
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -5773,24 +5960,24 @@
         <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -5805,24 +5992,24 @@
         <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -5837,7 +6024,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>62</v>
@@ -5845,16 +6032,16 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -5869,24 +6056,24 @@
         <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -5901,24 +6088,24 @@
         <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -5933,7 +6120,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>121</v>
@@ -5941,16 +6128,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -5965,24 +6152,24 @@
         <v>25</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -5997,7 +6184,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>121</v>
@@ -6005,16 +6192,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -6029,24 +6216,24 @@
         <v>25</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -6061,24 +6248,24 @@
         <v>25</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -6093,24 +6280,24 @@
         <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>793</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -6125,24 +6312,24 @@
         <v>25</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -6157,24 +6344,24 @@
         <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>789</v>
+        <v>753</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -6189,24 +6376,24 @@
         <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -6221,24 +6408,24 @@
         <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -6253,24 +6440,24 @@
         <v>25</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -6285,24 +6472,24 @@
         <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -6317,24 +6504,24 @@
         <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -6349,24 +6536,24 @@
         <v>25</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -6381,24 +6568,24 @@
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -6413,7 +6600,7 @@
         <v>25</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>70</v>
@@ -6421,16 +6608,16 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -6445,25 +6632,25 @@
         <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>804</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" t="s">
         <v>240</v>
       </c>
-      <c r="E30" t="s">
-        <v>244</v>
-      </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
@@ -6477,24 +6664,24 @@
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -6509,24 +6696,24 @@
         <v>25</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -6541,24 +6728,24 @@
         <v>25</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -6573,24 +6760,24 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -6605,24 +6792,24 @@
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -6637,24 +6824,24 @@
         <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -6669,24 +6856,24 @@
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -6701,24 +6888,24 @@
         <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -6733,24 +6920,24 @@
         <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -6765,24 +6952,24 @@
         <v>25</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -6797,24 +6984,24 @@
         <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>804</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -6829,24 +7016,24 @@
         <v>25</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -6861,24 +7048,24 @@
         <v>25</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -6893,24 +7080,24 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -6925,24 +7112,24 @@
         <v>25</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -6957,24 +7144,24 @@
         <v>25</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -6989,24 +7176,24 @@
         <v>25</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7021,24 +7208,24 @@
         <v>25</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7053,24 +7240,24 @@
         <v>25</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7085,24 +7272,24 @@
         <v>25</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7117,24 +7304,24 @@
         <v>25</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C51" t="s">
         <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7149,24 +7336,24 @@
         <v>25</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C52" t="s">
         <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7181,24 +7368,24 @@
         <v>25</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7213,24 +7400,24 @@
         <v>25</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
         <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -7245,24 +7432,24 @@
         <v>25</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
         <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -7277,24 +7464,24 @@
         <v>25</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C56" t="s">
         <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -7309,24 +7496,24 @@
         <v>25</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -7341,24 +7528,24 @@
         <v>25</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C58" t="s">
         <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -7373,24 +7560,24 @@
         <v>25</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
         <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -7405,24 +7592,24 @@
         <v>25</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C60" t="s">
         <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -7437,24 +7624,24 @@
         <v>25</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -7469,24 +7656,24 @@
         <v>25</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>803</v>
+        <v>767</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -7501,24 +7688,24 @@
         <v>25</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
         <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -7533,24 +7720,24 @@
         <v>25</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B64" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C64" t="s">
         <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -7565,24 +7752,24 @@
         <v>25</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -7597,24 +7784,24 @@
         <v>25</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C66" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -7629,24 +7816,24 @@
         <v>25</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -7661,24 +7848,24 @@
         <v>25</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C68" t="s">
         <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -7693,24 +7880,24 @@
         <v>25</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -7725,24 +7912,24 @@
         <v>25</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
         <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -7757,24 +7944,24 @@
         <v>25</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C71" t="s">
         <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -7789,24 +7976,24 @@
         <v>25</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>794</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -7821,24 +8008,24 @@
         <v>25</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B73" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -7853,24 +8040,24 @@
         <v>25</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="B74" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -7885,24 +8072,24 @@
         <v>25</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
         <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -7917,24 +8104,24 @@
         <v>25</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B76" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -7949,24 +8136,24 @@
         <v>25</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>794</v>
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C77" t="s">
         <v>62</v>
       </c>
       <c r="E77" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -7981,24 +8168,24 @@
         <v>25</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B78" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C78" t="s">
         <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8013,24 +8200,24 @@
         <v>25</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8045,24 +8232,24 @@
         <v>25</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
         <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8077,24 +8264,24 @@
         <v>25</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B81" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C81" t="s">
         <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8109,24 +8296,24 @@
         <v>25</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8141,10 +8328,10 @@
         <v>25</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -8159,10 +8346,10 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K88" sqref="K88:K95"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8214,668 +8401,668 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" t="s">
         <v>405</v>
       </c>
-      <c r="B2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" t="s">
+        <v>858</v>
+      </c>
+      <c r="C6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C7" t="s">
         <v>404</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" t="s">
         <v>159</v>
       </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1">
-      <c r="A3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C8" t="s">
         <v>407</v>
       </c>
-      <c r="E3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" t="s">
         <v>159</v>
       </c>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
-      <c r="A4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
-      <c r="A6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>418</v>
       </c>
-      <c r="C6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1">
-      <c r="A7" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1">
-      <c r="A8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
-      <c r="A9" t="s">
-        <v>430</v>
-      </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>861</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
       </c>
       <c r="E9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" t="s">
+        <v>863</v>
+      </c>
+      <c r="C11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>865</v>
+      </c>
+      <c r="C13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>866</v>
+      </c>
+      <c r="C14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>867</v>
+      </c>
+      <c r="C15" t="s">
         <v>429</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" t="s">
         <v>159</v>
       </c>
-      <c r="I9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1">
-      <c r="A10" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
         <v>433</v>
       </c>
-      <c r="B10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B16" t="s">
+        <v>868</v>
+      </c>
+      <c r="C16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" t="s">
         <v>432</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" t="s">
         <v>159</v>
       </c>
-      <c r="I10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
-      <c r="A11" t="s">
-        <v>767</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" t="s">
+        <v>869</v>
+      </c>
+      <c r="C17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" t="s">
         <v>434</v>
       </c>
-      <c r="C11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s">
         <v>159</v>
       </c>
-      <c r="I11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
-      <c r="A12" t="s">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C18" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" t="s">
+        <v>871</v>
+      </c>
+      <c r="C19" t="s">
+        <v>436</v>
+      </c>
+      <c r="E19" t="s">
         <v>439</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C20" t="s">
         <v>436</v>
       </c>
-      <c r="C12" t="s">
-        <v>437</v>
-      </c>
-      <c r="E12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E20" t="s">
+        <v>441</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" t="s">
         <v>159</v>
       </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
-      <c r="A13" t="s">
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" t="s">
+        <v>873</v>
+      </c>
+      <c r="C21" t="s">
         <v>442</v>
       </c>
-      <c r="B13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" t="s">
-        <v>411</v>
-      </c>
-      <c r="E13" t="s">
-        <v>441</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="s">
         <v>159</v>
       </c>
-      <c r="I13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
-      <c r="A14" t="s">
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C22" t="s">
         <v>445</v>
       </c>
-      <c r="B14" t="s">
-        <v>443</v>
-      </c>
-      <c r="C14" t="s">
-        <v>415</v>
-      </c>
-      <c r="E14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E22" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" t="s">
         <v>159</v>
       </c>
-      <c r="I14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
-      <c r="A15" t="s">
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" t="s">
+        <v>875</v>
+      </c>
+      <c r="C23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" t="s">
         <v>449</v>
       </c>
-      <c r="B15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" t="s">
-        <v>448</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" t="s">
         <v>159</v>
       </c>
-      <c r="I15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
-      <c r="A16" t="s">
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" t="s">
+        <v>876</v>
+      </c>
+      <c r="C24" t="s">
+        <v>451</v>
+      </c>
+      <c r="E24" t="s">
         <v>452</v>
       </c>
-      <c r="B16" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" t="s">
-        <v>451</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s">
         <v>159</v>
       </c>
-      <c r="I16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
-      <c r="A17" t="s">
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" t="s">
+        <v>877</v>
+      </c>
+      <c r="C25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E25" t="s">
         <v>455</v>
       </c>
-      <c r="B17" t="s">
-        <v>453</v>
-      </c>
-      <c r="C17" t="s">
-        <v>415</v>
-      </c>
-      <c r="E17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
-      <c r="A18" t="s">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>459</v>
       </c>
-      <c r="B18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B26" t="s">
+        <v>878</v>
+      </c>
+      <c r="C26" t="s">
         <v>457</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>458</v>
       </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" t="s">
         <v>159</v>
-      </c>
-      <c r="I18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
-      <c r="A19" t="s">
-        <v>462</v>
-      </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C19" t="s">
-        <v>457</v>
-      </c>
-      <c r="E19" t="s">
-        <v>461</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
-      <c r="A20" t="s">
-        <v>768</v>
-      </c>
-      <c r="B20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" t="s">
-        <v>457</v>
-      </c>
-      <c r="E20" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
-      <c r="A21" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" t="s">
-        <v>465</v>
-      </c>
-      <c r="C21" t="s">
-        <v>466</v>
-      </c>
-      <c r="E21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1">
-      <c r="A22" t="s">
-        <v>472</v>
-      </c>
-      <c r="B22" t="s">
-        <v>469</v>
-      </c>
-      <c r="C22" t="s">
-        <v>470</v>
-      </c>
-      <c r="E22" t="s">
-        <v>471</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1">
-      <c r="A23" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" t="s">
-        <v>474</v>
-      </c>
-      <c r="E23" t="s">
-        <v>475</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
-      <c r="A24" t="s">
-        <v>480</v>
-      </c>
-      <c r="B24" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" t="s">
-        <v>478</v>
-      </c>
-      <c r="E24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
-      <c r="A25" t="s">
-        <v>484</v>
-      </c>
-      <c r="B25" t="s">
-        <v>481</v>
-      </c>
-      <c r="C25" t="s">
-        <v>482</v>
-      </c>
-      <c r="E25" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
-      <c r="A26" t="s">
-        <v>488</v>
-      </c>
-      <c r="B26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C26" t="s">
-        <v>486</v>
-      </c>
-      <c r="E26" t="s">
-        <v>487</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="B27" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C27" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="E27" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -8887,21 +9074,21 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1">
       <c r="A28" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="C28" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="E28" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -8913,24 +9100,24 @@
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B29" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E29" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -8945,27 +9132,27 @@
         <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B30" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E30" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -8980,27 +9167,27 @@
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="B31" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="C31" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="D31" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E31" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -9015,24 +9202,24 @@
         <v>25</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1">
       <c r="A32" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="C32" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -9044,24 +9231,24 @@
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="B33" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="C33" t="s">
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E33" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -9075,22 +9262,28 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="B34" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="C34" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E34" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -9104,22 +9297,28 @@
       <c r="I34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="B35" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="C35" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="D35" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E35" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -9133,22 +9332,28 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="B36" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="C36" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="D36" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -9162,22 +9367,28 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="B37" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="C37" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E37" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -9191,22 +9402,28 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="B38" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="C38" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E38" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -9220,22 +9437,28 @@
       <c r="I38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="B39" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="C39" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="D39" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E39" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -9249,22 +9472,28 @@
       <c r="I39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="C40" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="D40" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E40" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -9278,22 +9507,28 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="B41" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C41" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="D41" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E41" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -9307,22 +9542,28 @@
       <c r="I41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="B42" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="C42" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="D42" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E42" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -9336,22 +9577,28 @@
       <c r="I42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="B43" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="C43" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="D43" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E43" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -9365,22 +9612,28 @@
       <c r="I43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="B44" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="C44" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D44" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E44" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -9394,22 +9647,28 @@
       <c r="I44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="C45" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D45" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E45" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -9423,22 +9682,28 @@
       <c r="I45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="B46" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C46" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E46" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -9452,22 +9717,28 @@
       <c r="I46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="B47" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="C47" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="D47" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E47" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -9481,22 +9752,28 @@
       <c r="I47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="B48" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="C48" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="D48" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E48" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -9510,22 +9787,28 @@
       <c r="I48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="B49" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="C49" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="D49" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E49" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -9539,22 +9822,28 @@
       <c r="I49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="B50" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="C50" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="D50" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E50" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -9568,22 +9857,28 @@
       <c r="I50" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="B51" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="C51" t="s">
         <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E51" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -9597,22 +9892,28 @@
       <c r="I51" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="B52" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="C52" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="D52" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E52" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -9626,22 +9927,28 @@
       <c r="I52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="B53" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="D53" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E53" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -9655,22 +9962,28 @@
       <c r="I53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="B54" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="D54" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E54" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -9684,22 +9997,28 @@
       <c r="I54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="B55" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C55" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E55" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -9713,22 +10032,28 @@
       <c r="I55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="C56" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="D56" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E56" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -9742,22 +10067,28 @@
       <c r="I56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="B57" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="C57" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E57" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -9771,22 +10102,28 @@
       <c r="I57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="B58" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="C58" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="D58" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E58" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -9800,22 +10137,28 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="B59" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="C59" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E59" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -9829,22 +10172,28 @@
       <c r="I59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="B60" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="C60" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E60" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -9858,22 +10207,28 @@
       <c r="I60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="B61" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C61" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="D61" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E61" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -9887,22 +10242,28 @@
       <c r="I61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="B62" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="C62" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -9916,22 +10277,28 @@
       <c r="I62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="B63" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="C63" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E63" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -9945,22 +10312,28 @@
       <c r="I63" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="B64" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="C64" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="D64" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E64" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -9974,22 +10347,28 @@
       <c r="I64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="B65" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="C65" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E65" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -10003,22 +10382,28 @@
       <c r="I65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="B66" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="D66" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E66" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -10032,22 +10417,28 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="B67" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="C67" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="D67" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E67" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -10061,22 +10452,28 @@
       <c r="I67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="B68" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="C68" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E68" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -10090,19 +10487,25 @@
       <c r="I68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
+      <c r="J68" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="B69" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="C69" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="E69" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -10111,24 +10514,24 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="I69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="B70" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="C70" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="E70" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -10137,24 +10540,24 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="I70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="B71" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="C71" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="E71" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -10163,24 +10566,24 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="I71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B72" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="C72" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="E72" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -10189,24 +10592,24 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="I72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="B73" t="s">
-        <v>646</v>
+        <v>884</v>
       </c>
       <c r="C73" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="E73" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -10215,27 +10618,33 @@
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="B74" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="E74" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -10249,19 +10658,25 @@
       <c r="I74" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1">
+      <c r="J74" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="B75" t="s">
-        <v>653</v>
+        <v>879</v>
       </c>
       <c r="C75" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="E75" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -10270,24 +10685,24 @@
         <v>15</v>
       </c>
       <c r="H75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" t="s">
         <v>159</v>
       </c>
-      <c r="I75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="B76" t="s">
-        <v>657</v>
+        <v>880</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="E76" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -10296,24 +10711,24 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76" t="s">
         <v>159</v>
       </c>
-      <c r="I76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1">
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="B77" t="s">
-        <v>661</v>
+        <v>881</v>
       </c>
       <c r="C77" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="E77" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -10322,24 +10737,24 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
+        <v>158</v>
+      </c>
+      <c r="I77" t="s">
         <v>159</v>
       </c>
-      <c r="I77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="B78" t="s">
-        <v>665</v>
+        <v>882</v>
       </c>
       <c r="C78" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E78" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -10348,24 +10763,24 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
+        <v>158</v>
+      </c>
+      <c r="I78" t="s">
         <v>159</v>
       </c>
-      <c r="I78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="B79" t="s">
-        <v>669</v>
+        <v>883</v>
       </c>
       <c r="C79" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E79" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -10374,24 +10789,24 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
+        <v>158</v>
+      </c>
+      <c r="I79" t="s">
         <v>159</v>
       </c>
-      <c r="I79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1">
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="B80" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="C80" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="E80" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -10400,24 +10815,24 @@
         <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="I80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="B81" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="C81" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="E81" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -10426,27 +10841,27 @@
         <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="I81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="B82" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E82" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -10461,24 +10876,24 @@
         <v>25</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B83" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="C83" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="E83" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -10490,21 +10905,21 @@
         <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="B84" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="C84" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="E84" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -10516,21 +10931,21 @@
         <v>24</v>
       </c>
       <c r="I84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="B85" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="C85" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="E85" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -10542,21 +10957,21 @@
         <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="B86" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="C86" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="E86" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -10568,21 +10983,21 @@
         <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="B87" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="C87" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="E87" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -10594,24 +11009,24 @@
         <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" t="s">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="B88" t="s">
-        <v>700</v>
+        <v>665</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D88" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E88" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -10626,27 +11041,27 @@
         <v>25</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
       <c r="B89" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="C89" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="D89" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E89" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -10661,27 +11076,27 @@
         <v>25</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" t="s">
-        <v>709</v>
+        <v>674</v>
       </c>
       <c r="B90" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="C90" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="D90" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E90" t="s">
-        <v>708</v>
+        <v>673</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -10696,27 +11111,27 @@
         <v>25</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="B91" t="s">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="C91" t="s">
-        <v>711</v>
+        <v>676</v>
       </c>
       <c r="D91" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E91" t="s">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -10731,27 +11146,27 @@
         <v>25</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="B92" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="C92" t="s">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="D92" t="s">
+        <v>646</v>
+      </c>
+      <c r="E92" t="s">
         <v>681</v>
-      </c>
-      <c r="E92" t="s">
-        <v>716</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -10766,27 +11181,27 @@
         <v>25</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" t="s">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="B93" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="C93" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="D93" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E93" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -10801,27 +11216,27 @@
         <v>25</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="B94" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C94" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="D94" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E94" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -10836,27 +11251,27 @@
         <v>25</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="B95" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="C95" t="s">
-        <v>726</v>
+        <v>691</v>
       </c>
       <c r="D95" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="E95" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -10871,24 +11286,24 @@
         <v>25</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="B96" t="s">
-        <v>729</v>
+        <v>885</v>
       </c>
       <c r="C96" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="E96" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -10897,17 +11312,23 @@
         <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I96" t="s">
         <v>25</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K96" xr:uid="{3164B3C4-164D-403B-9E9F-77D021E9ABD8}">
     <filterColumn colId="8">
       <filters>
-        <filter val="Philippine Statistics Authority (PSA)"/>
+        <filter val="Central Bank of the Philippines (BSP)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10971,7 +11392,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -11059,7 +11480,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>

--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EAAE46-E54F-408F-A5A7-7169FA2E9639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F3FCC-8103-4957-B01D-49E9818C97FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="918">
   <si>
     <t>Short Label</t>
   </si>
@@ -3973,6 +3973,125 @@
   </si>
   <si>
     <t>Merchandise Trade, Exports, Total, Value, NSA - Philippines</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A Current Account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3 Goods  and  Services</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.3 Export</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.4 Import</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.5.3 Credit: Exports</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.5.4 Debit:  Imports</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.6 Services</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.6.1 Credit: Exports</t>
+  </si>
+  <si>
+    <t>A.1.bop6.E OVERALL BOP POSITION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.C.3.2 Net Incurrence of Liabilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.C.3.1 Net Acquisition of Financial Assets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.C.3 Direct Investment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.C Financial Account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.6.2 Debit:  Imports</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.7 Primary Income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.7.1 Credit: Receipts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.7.2 Debit:  Payments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.6 Secondary Income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.6.1 Credit: Receipts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.A.6.2 Debit:  Payments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.B Capital Account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.B.1 Credit: Receipts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.B.2 Debit:  Payments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6.G.1 of which: OF Cash Remittances channeled thru the banking system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1.bop6 PHILIPPINES BALANCE OF PAYMENTS</t>
+  </si>
+  <si>
+    <t>A.1.bop6.A.5.3.5 Goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign Investments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign Exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERNATIONAL RESERVES</t>
   </si>
 </sst>
 </file>
@@ -8346,23 +8465,23 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="60.875" customWidth="1"/>
+    <col min="2" max="2" width="64.375" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="36.75" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="33.25" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8426,6 +8545,12 @@
       <c r="I2" t="s">
         <v>159</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -8452,6 +8577,12 @@
       <c r="I3" t="s">
         <v>159</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -8478,6 +8609,12 @@
       <c r="I4" t="s">
         <v>159</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -8504,6 +8641,12 @@
       <c r="I5" t="s">
         <v>159</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -8530,6 +8673,12 @@
       <c r="I6" t="s">
         <v>159</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -8556,6 +8705,12 @@
       <c r="I7" t="s">
         <v>159</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -8582,6 +8737,12 @@
       <c r="I8" t="s">
         <v>159</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -8608,6 +8769,12 @@
       <c r="I9" t="s">
         <v>159</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -8634,6 +8801,12 @@
       <c r="I10" t="s">
         <v>159</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -8660,6 +8833,12 @@
       <c r="I11" t="s">
         <v>159</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -8686,6 +8865,12 @@
       <c r="I12" t="s">
         <v>159</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -8712,6 +8897,12 @@
       <c r="I13" t="s">
         <v>159</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -8738,6 +8929,12 @@
       <c r="I14" t="s">
         <v>159</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -8764,6 +8961,12 @@
       <c r="I15" t="s">
         <v>159</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -8790,6 +8993,12 @@
       <c r="I16" t="s">
         <v>159</v>
       </c>
+      <c r="J16" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
@@ -8816,6 +9025,12 @@
       <c r="I17" t="s">
         <v>159</v>
       </c>
+      <c r="J17" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>905</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
@@ -8842,6 +9057,12 @@
       <c r="I18" t="s">
         <v>159</v>
       </c>
+      <c r="J18" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
@@ -8868,6 +9089,12 @@
       <c r="I19" t="s">
         <v>159</v>
       </c>
+      <c r="J19" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
@@ -8894,6 +9121,12 @@
       <c r="I20" t="s">
         <v>159</v>
       </c>
+      <c r="J20" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
@@ -8920,6 +9153,12 @@
       <c r="I21" t="s">
         <v>159</v>
       </c>
+      <c r="J21" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
@@ -8946,6 +9185,12 @@
       <c r="I22" t="s">
         <v>159</v>
       </c>
+      <c r="J22" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
@@ -8972,6 +9217,12 @@
       <c r="I23" t="s">
         <v>159</v>
       </c>
+      <c r="J23" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
@@ -8998,6 +9249,12 @@
       <c r="I24" t="s">
         <v>159</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
@@ -9024,6 +9281,12 @@
       <c r="I25" t="s">
         <v>159</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
@@ -9050,6 +9313,12 @@
       <c r="I26" t="s">
         <v>159</v>
       </c>
+      <c r="J26" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
@@ -10690,6 +10959,12 @@
       <c r="I75" t="s">
         <v>159</v>
       </c>
+      <c r="J75" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
@@ -10716,6 +10991,12 @@
       <c r="I76" t="s">
         <v>159</v>
       </c>
+      <c r="J76" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
@@ -10742,6 +11023,12 @@
       <c r="I77" t="s">
         <v>159</v>
       </c>
+      <c r="J77" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
@@ -10768,6 +11055,12 @@
       <c r="I78" t="s">
         <v>159</v>
       </c>
+      <c r="J78" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
@@ -10793,6 +11086,12 @@
       </c>
       <c r="I79" t="s">
         <v>159</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="80" spans="1:11">

--- a/INTLINE/data/566/566_series.xlsx
+++ b/INTLINE/data/566/566_series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F3FCC-8103-4957-B01D-49E9818C97FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A10CC3-11E9-4771-8D19-A65AC759920A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1C23A4B8-5BAA-4FD7-943D-9B6137CE2924}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="936">
   <si>
     <t>Short Label</t>
   </si>
@@ -2203,9 +2203,6 @@
     <t>PHLBOP0042.M</t>
   </si>
   <si>
-    <t>Government Finance, Central Government, Revenues, NSA - Philippines</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -4092,6 +4089,65 @@
   </si>
   <si>
     <t>INTERNATIONAL RESERVES</t>
+  </si>
+  <si>
+    <t>DEPOSITORY CORPORATIONS SURVEY (SRF-Based)</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Other Deposits Included in Broad Money</t>
+  </si>
+  <si>
+    <t>Securities Other Than Shares Included in Broad Money</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Selected Domestic Interest Rates</t>
+  </si>
+  <si>
+    <t>TBR364</t>
+  </si>
+  <si>
+    <t>BALR</t>
+  </si>
+  <si>
+    <t>RPRO</t>
+  </si>
+  <si>
+    <t>RRPRO</t>
+  </si>
+  <si>
+    <t>TBR91</t>
+  </si>
+  <si>
+    <t>TBR182</t>
+  </si>
+  <si>
+    <t>Bureau of the Treasury of the Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government Finance, Central Government, Revenues, NSA - Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-Summary</t>
+  </si>
+  <si>
+    <t>NG-Debt</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Expenditures</t>
   </si>
 </sst>
 </file>
@@ -4485,7 +4541,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
@@ -4567,13 +4623,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4599,13 +4655,13 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4634,10 +4690,10 @@
         <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4666,10 +4722,10 @@
         <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4698,10 +4754,10 @@
         <v>25</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4730,10 +4786,10 @@
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4762,10 +4818,10 @@
         <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4794,10 +4850,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4826,15 +4882,15 @@
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -4858,10 +4914,10 @@
         <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4890,10 +4946,10 @@
         <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4922,10 +4978,10 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4954,10 +5010,10 @@
         <v>25</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4986,7 +5042,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>70</v>
@@ -5018,10 +5074,10 @@
         <v>25</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5050,10 +5106,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5082,10 +5138,10 @@
         <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5114,7 +5170,7 @@
         <v>25</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>35</v>
@@ -5122,7 +5178,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -5146,10 +5202,10 @@
         <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5178,10 +5234,10 @@
         <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5210,7 +5266,7 @@
         <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>47</v>
@@ -5242,10 +5298,10 @@
         <v>25</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5274,10 +5330,10 @@
         <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5306,7 +5362,7 @@
         <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>62</v>
@@ -5338,10 +5394,10 @@
         <v>25</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5370,10 +5426,10 @@
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5402,10 +5458,10 @@
         <v>25</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5434,10 +5490,10 @@
         <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5466,10 +5522,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5498,10 +5554,10 @@
         <v>25</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5530,10 +5586,10 @@
         <v>25</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5562,15 +5618,15 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -5594,10 +5650,10 @@
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5626,10 +5682,10 @@
         <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5658,10 +5714,10 @@
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5690,10 +5746,10 @@
         <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5722,10 +5778,10 @@
         <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5754,10 +5810,10 @@
         <v>25</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5786,10 +5842,10 @@
         <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -5887,10 +5943,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5898,7 +5954,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
@@ -5916,13 +5972,13 @@
         <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5930,7 +5986,7 @@
         <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C4" t="s">
         <v>160</v>
@@ -5951,10 +6007,10 @@
         <v>159</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5962,7 +6018,7 @@
         <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
@@ -5983,10 +6039,10 @@
         <v>159</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5994,7 +6050,7 @@
         <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C6" t="s">
         <v>163</v>
@@ -6015,10 +6071,10 @@
         <v>159</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6047,10 +6103,10 @@
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6079,10 +6135,10 @@
         <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6111,10 +6167,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6143,7 +6199,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>62</v>
@@ -6175,10 +6231,10 @@
         <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6207,7 +6263,7 @@
         <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>184</v>
@@ -6239,7 +6295,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>121</v>
@@ -6271,7 +6327,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>184</v>
@@ -6303,7 +6359,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>121</v>
@@ -6335,10 +6391,10 @@
         <v>25</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6367,10 +6423,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6399,10 +6455,10 @@
         <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6431,10 +6487,10 @@
         <v>25</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -6463,10 +6519,10 @@
         <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -6495,10 +6551,10 @@
         <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6527,15 +6583,15 @@
         <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" t="s">
         <v>218</v>
@@ -6559,10 +6615,10 @@
         <v>25</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6591,10 +6647,10 @@
         <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6623,10 +6679,10 @@
         <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6655,10 +6711,10 @@
         <v>25</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6687,10 +6743,10 @@
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6719,7 +6775,7 @@
         <v>25</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>70</v>
@@ -6751,15 +6807,15 @@
         <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B30" t="s">
         <v>239</v>
@@ -6783,10 +6839,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6815,10 +6871,10 @@
         <v>25</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6847,10 +6903,10 @@
         <v>25</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6879,10 +6935,10 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6911,10 +6967,10 @@
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6943,10 +6999,10 @@
         <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6975,10 +7031,10 @@
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -7007,10 +7063,10 @@
         <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -7039,10 +7095,10 @@
         <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -7071,10 +7127,10 @@
         <v>25</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -7103,10 +7159,10 @@
         <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -7135,10 +7191,10 @@
         <v>25</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -7167,10 +7223,10 @@
         <v>25</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -7199,10 +7255,10 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -7231,10 +7287,10 @@
         <v>25</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -7263,10 +7319,10 @@
         <v>25</v>
       </c>
       <c r="J45" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -7295,10 +7351,10 @@
         <v>25</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -7327,15 +7383,15 @@
         <v>25</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B48" t="s">
         <v>294</v>
@@ -7359,10 +7415,10 @@
         <v>25</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -7391,10 +7447,10 @@
         <v>25</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7423,10 +7479,10 @@
         <v>25</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -7455,10 +7511,10 @@
         <v>25</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7487,10 +7543,10 @@
         <v>25</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -7519,10 +7575,10 @@
         <v>25</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -7551,10 +7607,10 @@
         <v>25</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7583,10 +7639,10 @@
         <v>25</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7615,10 +7671,10 @@
         <v>25</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -7647,15 +7703,15 @@
         <v>25</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B58" t="s">
         <v>323</v>
@@ -7679,10 +7735,10 @@
         <v>25</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -7711,10 +7767,10 @@
         <v>25</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -7743,10 +7799,10 @@
         <v>25</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -7775,10 +7831,10 @@
         <v>25</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7807,10 +7863,10 @@
         <v>25</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -7839,10 +7895,10 @@
         <v>25</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7871,10 +7927,10 @@
         <v>25</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -7903,10 +7959,10 @@
         <v>25</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -7935,10 +7991,10 @@
         <v>25</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -7967,10 +8023,10 @@
         <v>25</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -7999,10 +8055,10 @@
         <v>25</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -8031,10 +8087,10 @@
         <v>25</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -8063,10 +8119,10 @@
         <v>25</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -8095,10 +8151,10 @@
         <v>25</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -8127,10 +8183,10 @@
         <v>25</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -8159,15 +8215,15 @@
         <v>25</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B74" t="s">
         <v>372</v>
@@ -8191,10 +8247,10 @@
         <v>25</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -8223,10 +8279,10 @@
         <v>25</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -8255,10 +8311,10 @@
         <v>25</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -8287,10 +8343,10 @@
         <v>25</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -8319,10 +8375,10 @@
         <v>25</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8351,10 +8407,10 @@
         <v>25</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8383,10 +8439,10 @@
         <v>25</v>
       </c>
       <c r="J80" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -8415,10 +8471,10 @@
         <v>25</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8447,10 +8503,10 @@
         <v>25</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -8461,14 +8517,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3164B3C4-164D-403B-9E9F-77D021E9ABD8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8525,7 +8580,7 @@
         <v>400</v>
       </c>
       <c r="B2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C2" t="s">
         <v>398</v>
@@ -8546,10 +8601,10 @@
         <v>159</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8557,7 +8612,7 @@
         <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C3" t="s">
         <v>401</v>
@@ -8578,10 +8633,10 @@
         <v>159</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8589,7 +8644,7 @@
         <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C4" t="s">
         <v>404</v>
@@ -8610,10 +8665,10 @@
         <v>159</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8621,7 +8676,7 @@
         <v>409</v>
       </c>
       <c r="B5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C5" t="s">
         <v>407</v>
@@ -8642,10 +8697,10 @@
         <v>159</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8653,7 +8708,7 @@
         <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C6" t="s">
         <v>410</v>
@@ -8674,10 +8729,10 @@
         <v>159</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8685,7 +8740,7 @@
         <v>414</v>
       </c>
       <c r="B7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C7" t="s">
         <v>404</v>
@@ -8706,10 +8761,10 @@
         <v>159</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8717,7 +8772,7 @@
         <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C8" t="s">
         <v>407</v>
@@ -8738,10 +8793,10 @@
         <v>159</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8749,7 +8804,7 @@
         <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -8770,10 +8825,10 @@
         <v>159</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8781,7 +8836,7 @@
         <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C10" t="s">
         <v>404</v>
@@ -8802,18 +8857,18 @@
         <v>159</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C11" t="s">
         <v>407</v>
@@ -8834,10 +8889,10 @@
         <v>159</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8845,7 +8900,7 @@
         <v>424</v>
       </c>
       <c r="B12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C12" t="s">
         <v>422</v>
@@ -8866,10 +8921,10 @@
         <v>159</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8877,7 +8932,7 @@
         <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C13" t="s">
         <v>404</v>
@@ -8898,10 +8953,10 @@
         <v>159</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8909,7 +8964,7 @@
         <v>428</v>
       </c>
       <c r="B14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C14" t="s">
         <v>407</v>
@@ -8930,10 +8985,10 @@
         <v>159</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8941,7 +8996,7 @@
         <v>431</v>
       </c>
       <c r="B15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C15" t="s">
         <v>429</v>
@@ -8962,10 +9017,10 @@
         <v>159</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8973,7 +9028,7 @@
         <v>433</v>
       </c>
       <c r="B16" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C16" t="s">
         <v>404</v>
@@ -8994,10 +9049,10 @@
         <v>159</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9005,7 +9060,7 @@
         <v>435</v>
       </c>
       <c r="B17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C17" t="s">
         <v>407</v>
@@ -9026,10 +9081,10 @@
         <v>159</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9037,7 +9092,7 @@
         <v>438</v>
       </c>
       <c r="B18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C18" t="s">
         <v>436</v>
@@ -9058,10 +9113,10 @@
         <v>159</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9069,7 +9124,7 @@
         <v>440</v>
       </c>
       <c r="B19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C19" t="s">
         <v>436</v>
@@ -9090,18 +9145,18 @@
         <v>159</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C20" t="s">
         <v>436</v>
@@ -9122,10 +9177,10 @@
         <v>159</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9133,7 +9188,7 @@
         <v>444</v>
       </c>
       <c r="B21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C21" t="s">
         <v>442</v>
@@ -9154,10 +9209,10 @@
         <v>159</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9165,7 +9220,7 @@
         <v>447</v>
       </c>
       <c r="B22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C22" t="s">
         <v>445</v>
@@ -9186,10 +9241,10 @@
         <v>159</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -9197,7 +9252,7 @@
         <v>450</v>
       </c>
       <c r="B23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C23" t="s">
         <v>448</v>
@@ -9218,10 +9273,10 @@
         <v>159</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -9229,7 +9284,7 @@
         <v>453</v>
       </c>
       <c r="B24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C24" t="s">
         <v>451</v>
@@ -9250,10 +9305,10 @@
         <v>159</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -9261,7 +9316,7 @@
         <v>456</v>
       </c>
       <c r="B25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C25" t="s">
         <v>454</v>
@@ -9282,10 +9337,10 @@
         <v>159</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -9293,7 +9348,7 @@
         <v>459</v>
       </c>
       <c r="B26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C26" t="s">
         <v>457</v>
@@ -9314,79 +9369,91 @@
         <v>159</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" t="s">
+        <v>931</v>
+      </c>
+      <c r="C27" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" t="s">
+        <v>461</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>930</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>467</v>
+      </c>
+      <c r="B28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C28" t="s">
+        <v>465</v>
+      </c>
+      <c r="E28" t="s">
+        <v>466</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
         <v>463</v>
       </c>
-      <c r="B27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C27" t="s">
-        <v>461</v>
-      </c>
-      <c r="E27" t="s">
-        <v>462</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="A28" t="s">
+      <c r="J28" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" t="s">
         <v>468</v>
-      </c>
-      <c r="B28" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" t="s">
-        <v>466</v>
-      </c>
-      <c r="E28" t="s">
-        <v>467</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="A29" t="s">
-        <v>472</v>
-      </c>
-      <c r="B29" t="s">
-        <v>469</v>
       </c>
       <c r="C29" t="s">
         <v>155</v>
       </c>
       <c r="D29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E29" t="s">
         <v>470</v>
-      </c>
-      <c r="E29" t="s">
-        <v>471</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -9401,27 +9468,27 @@
         <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C30" t="s">
         <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9436,27 +9503,27 @@
         <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C31" t="s">
         <v>476</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>469</v>
+      </c>
+      <c r="E31" t="s">
         <v>477</v>
-      </c>
-      <c r="D31" t="s">
-        <v>470</v>
-      </c>
-      <c r="E31" t="s">
-        <v>478</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -9471,53 +9538,59 @@
         <v>25</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>482</v>
+      </c>
+      <c r="B32" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" t="s">
+        <v>480</v>
+      </c>
+      <c r="E32" t="s">
+        <v>481</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>463</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>485</v>
+      </c>
+      <c r="B33" t="s">
         <v>483</v>
-      </c>
-      <c r="B32" t="s">
-        <v>480</v>
-      </c>
-      <c r="C32" t="s">
-        <v>481</v>
-      </c>
-      <c r="E32" t="s">
-        <v>482</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
-      <c r="A33" t="s">
-        <v>486</v>
-      </c>
-      <c r="B33" t="s">
-        <v>484</v>
       </c>
       <c r="C33" t="s">
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -9532,27 +9605,27 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B34" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" t="s">
         <v>487</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>469</v>
+      </c>
+      <c r="E34" t="s">
         <v>488</v>
-      </c>
-      <c r="D34" t="s">
-        <v>470</v>
-      </c>
-      <c r="E34" t="s">
-        <v>489</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -9567,27 +9640,27 @@
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s">
+        <v>490</v>
+      </c>
+      <c r="C35" t="s">
+        <v>487</v>
+      </c>
+      <c r="D35" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" t="s">
         <v>491</v>
-      </c>
-      <c r="C35" t="s">
-        <v>488</v>
-      </c>
-      <c r="D35" t="s">
-        <v>470</v>
-      </c>
-      <c r="E35" t="s">
-        <v>492</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -9602,27 +9675,27 @@
         <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" t="s">
         <v>494</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" t="s">
         <v>495</v>
-      </c>
-      <c r="D36" t="s">
-        <v>470</v>
-      </c>
-      <c r="E36" t="s">
-        <v>496</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -9637,27 +9710,27 @@
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
+        <v>497</v>
+      </c>
+      <c r="C37" t="s">
         <v>498</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>469</v>
+      </c>
+      <c r="E37" t="s">
         <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>470</v>
-      </c>
-      <c r="E37" t="s">
-        <v>500</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -9672,27 +9745,27 @@
         <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C38" t="s">
         <v>502</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>469</v>
+      </c>
+      <c r="E38" t="s">
         <v>503</v>
-      </c>
-      <c r="D38" t="s">
-        <v>470</v>
-      </c>
-      <c r="E38" t="s">
-        <v>504</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -9707,27 +9780,27 @@
         <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C39" t="s">
         <v>505</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39" t="s">
         <v>506</v>
-      </c>
-      <c r="D39" t="s">
-        <v>470</v>
-      </c>
-      <c r="E39" t="s">
-        <v>507</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -9742,27 +9815,27 @@
         <v>25</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B40" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" t="s">
         <v>509</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>469</v>
+      </c>
+      <c r="E40" t="s">
         <v>510</v>
-      </c>
-      <c r="D40" t="s">
-        <v>470</v>
-      </c>
-      <c r="E40" t="s">
-        <v>511</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -9777,27 +9850,27 @@
         <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B41" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" t="s">
         <v>513</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E41" t="s">
         <v>514</v>
-      </c>
-      <c r="D41" t="s">
-        <v>470</v>
-      </c>
-      <c r="E41" t="s">
-        <v>515</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -9812,27 +9885,27 @@
         <v>25</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B42" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" t="s">
         <v>517</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42" t="s">
         <v>518</v>
-      </c>
-      <c r="D42" t="s">
-        <v>470</v>
-      </c>
-      <c r="E42" t="s">
-        <v>519</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -9847,27 +9920,27 @@
         <v>25</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B43" t="s">
+        <v>519</v>
+      </c>
+      <c r="C43" t="s">
         <v>520</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>469</v>
+      </c>
+      <c r="E43" t="s">
         <v>521</v>
-      </c>
-      <c r="D43" t="s">
-        <v>470</v>
-      </c>
-      <c r="E43" t="s">
-        <v>522</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -9882,27 +9955,27 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C44" t="s">
         <v>524</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>469</v>
+      </c>
+      <c r="E44" t="s">
         <v>525</v>
-      </c>
-      <c r="D44" t="s">
-        <v>470</v>
-      </c>
-      <c r="E44" t="s">
-        <v>526</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -9917,27 +9990,27 @@
         <v>25</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C45" t="s">
         <v>527</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>469</v>
+      </c>
+      <c r="E45" t="s">
         <v>528</v>
-      </c>
-      <c r="D45" t="s">
-        <v>470</v>
-      </c>
-      <c r="E45" t="s">
-        <v>529</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -9952,27 +10025,27 @@
         <v>25</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B46" t="s">
+        <v>530</v>
+      </c>
+      <c r="C46" t="s">
         <v>531</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>469</v>
+      </c>
+      <c r="E46" t="s">
         <v>532</v>
-      </c>
-      <c r="D46" t="s">
-        <v>470</v>
-      </c>
-      <c r="E46" t="s">
-        <v>533</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -9987,27 +10060,27 @@
         <v>25</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B47" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" t="s">
         <v>535</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+      <c r="E47" t="s">
         <v>536</v>
-      </c>
-      <c r="D47" t="s">
-        <v>470</v>
-      </c>
-      <c r="E47" t="s">
-        <v>537</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -10022,27 +10095,27 @@
         <v>25</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B48" t="s">
+        <v>538</v>
+      </c>
+      <c r="C48" t="s">
         <v>539</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>469</v>
+      </c>
+      <c r="E48" t="s">
         <v>540</v>
-      </c>
-      <c r="D48" t="s">
-        <v>470</v>
-      </c>
-      <c r="E48" t="s">
-        <v>541</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -10057,27 +10130,27 @@
         <v>25</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B49" t="s">
+        <v>542</v>
+      </c>
+      <c r="C49" t="s">
         <v>543</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>469</v>
+      </c>
+      <c r="E49" t="s">
         <v>544</v>
-      </c>
-      <c r="D49" t="s">
-        <v>470</v>
-      </c>
-      <c r="E49" t="s">
-        <v>545</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -10092,27 +10165,27 @@
         <v>25</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B50" t="s">
+        <v>546</v>
+      </c>
+      <c r="C50" t="s">
         <v>547</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>469</v>
+      </c>
+      <c r="E50" t="s">
         <v>548</v>
-      </c>
-      <c r="D50" t="s">
-        <v>470</v>
-      </c>
-      <c r="E50" t="s">
-        <v>549</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -10127,27 +10200,27 @@
         <v>25</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B51" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C51" t="s">
         <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -10162,27 +10235,27 @@
         <v>25</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C52" t="s">
+        <v>487</v>
+      </c>
+      <c r="D52" t="s">
+        <v>469</v>
+      </c>
+      <c r="E52" t="s">
         <v>553</v>
-      </c>
-      <c r="C52" t="s">
-        <v>488</v>
-      </c>
-      <c r="D52" t="s">
-        <v>470</v>
-      </c>
-      <c r="E52" t="s">
-        <v>554</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -10197,27 +10270,27 @@
         <v>25</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53" t="s">
+        <v>487</v>
+      </c>
+      <c r="D53" t="s">
+        <v>469</v>
+      </c>
+      <c r="E53" t="s">
         <v>556</v>
-      </c>
-      <c r="C53" t="s">
-        <v>488</v>
-      </c>
-      <c r="D53" t="s">
-        <v>470</v>
-      </c>
-      <c r="E53" t="s">
-        <v>557</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -10232,27 +10305,27 @@
         <v>25</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B54" t="s">
+        <v>558</v>
+      </c>
+      <c r="C54" t="s">
+        <v>494</v>
+      </c>
+      <c r="D54" t="s">
+        <v>469</v>
+      </c>
+      <c r="E54" t="s">
         <v>559</v>
-      </c>
-      <c r="C54" t="s">
-        <v>495</v>
-      </c>
-      <c r="D54" t="s">
-        <v>470</v>
-      </c>
-      <c r="E54" t="s">
-        <v>560</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -10267,27 +10340,27 @@
         <v>25</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B55" t="s">
+        <v>561</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
+      <c r="D55" t="s">
+        <v>469</v>
+      </c>
+      <c r="E55" t="s">
         <v>562</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" t="s">
-        <v>470</v>
-      </c>
-      <c r="E55" t="s">
-        <v>563</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -10302,27 +10375,27 @@
         <v>25</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B56" t="s">
+        <v>564</v>
+      </c>
+      <c r="C56" t="s">
+        <v>502</v>
+      </c>
+      <c r="D56" t="s">
+        <v>469</v>
+      </c>
+      <c r="E56" t="s">
         <v>565</v>
-      </c>
-      <c r="C56" t="s">
-        <v>503</v>
-      </c>
-      <c r="D56" t="s">
-        <v>470</v>
-      </c>
-      <c r="E56" t="s">
-        <v>566</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -10337,27 +10410,27 @@
         <v>25</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B57" t="s">
+        <v>567</v>
+      </c>
+      <c r="C57" t="s">
+        <v>505</v>
+      </c>
+      <c r="D57" t="s">
+        <v>469</v>
+      </c>
+      <c r="E57" t="s">
         <v>568</v>
-      </c>
-      <c r="C57" t="s">
-        <v>506</v>
-      </c>
-      <c r="D57" t="s">
-        <v>470</v>
-      </c>
-      <c r="E57" t="s">
-        <v>569</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -10372,27 +10445,27 @@
         <v>25</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B58" t="s">
+        <v>570</v>
+      </c>
+      <c r="C58" t="s">
+        <v>509</v>
+      </c>
+      <c r="D58" t="s">
+        <v>469</v>
+      </c>
+      <c r="E58" t="s">
         <v>571</v>
-      </c>
-      <c r="C58" t="s">
-        <v>510</v>
-      </c>
-      <c r="D58" t="s">
-        <v>470</v>
-      </c>
-      <c r="E58" t="s">
-        <v>572</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -10407,27 +10480,27 @@
         <v>25</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B59" t="s">
+        <v>573</v>
+      </c>
+      <c r="C59" t="s">
+        <v>513</v>
+      </c>
+      <c r="D59" t="s">
+        <v>469</v>
+      </c>
+      <c r="E59" t="s">
         <v>574</v>
-      </c>
-      <c r="C59" t="s">
-        <v>514</v>
-      </c>
-      <c r="D59" t="s">
-        <v>470</v>
-      </c>
-      <c r="E59" t="s">
-        <v>575</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -10442,27 +10515,27 @@
         <v>25</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B60" t="s">
+        <v>575</v>
+      </c>
+      <c r="C60" t="s">
+        <v>517</v>
+      </c>
+      <c r="D60" t="s">
+        <v>469</v>
+      </c>
+      <c r="E60" t="s">
         <v>576</v>
-      </c>
-      <c r="C60" t="s">
-        <v>518</v>
-      </c>
-      <c r="D60" t="s">
-        <v>470</v>
-      </c>
-      <c r="E60" t="s">
-        <v>577</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -10477,27 +10550,27 @@
         <v>25</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B61" t="s">
+        <v>578</v>
+      </c>
+      <c r="C61" t="s">
+        <v>520</v>
+      </c>
+      <c r="D61" t="s">
+        <v>469</v>
+      </c>
+      <c r="E61" t="s">
         <v>579</v>
-      </c>
-      <c r="C61" t="s">
-        <v>521</v>
-      </c>
-      <c r="D61" t="s">
-        <v>470</v>
-      </c>
-      <c r="E61" t="s">
-        <v>580</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -10512,27 +10585,27 @@
         <v>25</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B62" t="s">
+        <v>581</v>
+      </c>
+      <c r="C62" t="s">
+        <v>524</v>
+      </c>
+      <c r="D62" t="s">
+        <v>469</v>
+      </c>
+      <c r="E62" t="s">
         <v>582</v>
-      </c>
-      <c r="C62" t="s">
-        <v>525</v>
-      </c>
-      <c r="D62" t="s">
-        <v>470</v>
-      </c>
-      <c r="E62" t="s">
-        <v>583</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -10547,27 +10620,27 @@
         <v>25</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B63" t="s">
+        <v>584</v>
+      </c>
+      <c r="C63" t="s">
+        <v>527</v>
+      </c>
+      <c r="D63" t="s">
+        <v>469</v>
+      </c>
+      <c r="E63" t="s">
         <v>585</v>
-      </c>
-      <c r="C63" t="s">
-        <v>528</v>
-      </c>
-      <c r="D63" t="s">
-        <v>470</v>
-      </c>
-      <c r="E63" t="s">
-        <v>586</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -10582,27 +10655,27 @@
         <v>25</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B64" t="s">
+        <v>587</v>
+      </c>
+      <c r="C64" t="s">
+        <v>531</v>
+      </c>
+      <c r="D64" t="s">
+        <v>469</v>
+      </c>
+      <c r="E64" t="s">
         <v>588</v>
-      </c>
-      <c r="C64" t="s">
-        <v>532</v>
-      </c>
-      <c r="D64" t="s">
-        <v>470</v>
-      </c>
-      <c r="E64" t="s">
-        <v>589</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10617,27 +10690,27 @@
         <v>25</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B65" t="s">
+        <v>590</v>
+      </c>
+      <c r="C65" t="s">
+        <v>535</v>
+      </c>
+      <c r="D65" t="s">
+        <v>469</v>
+      </c>
+      <c r="E65" t="s">
         <v>591</v>
-      </c>
-      <c r="C65" t="s">
-        <v>536</v>
-      </c>
-      <c r="D65" t="s">
-        <v>470</v>
-      </c>
-      <c r="E65" t="s">
-        <v>592</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -10652,27 +10725,27 @@
         <v>25</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B66" t="s">
+        <v>593</v>
+      </c>
+      <c r="C66" t="s">
+        <v>539</v>
+      </c>
+      <c r="D66" t="s">
+        <v>469</v>
+      </c>
+      <c r="E66" t="s">
         <v>594</v>
-      </c>
-      <c r="C66" t="s">
-        <v>540</v>
-      </c>
-      <c r="D66" t="s">
-        <v>470</v>
-      </c>
-      <c r="E66" t="s">
-        <v>595</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -10687,27 +10760,27 @@
         <v>25</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B67" t="s">
+        <v>596</v>
+      </c>
+      <c r="C67" t="s">
+        <v>543</v>
+      </c>
+      <c r="D67" t="s">
+        <v>469</v>
+      </c>
+      <c r="E67" t="s">
         <v>597</v>
-      </c>
-      <c r="C67" t="s">
-        <v>544</v>
-      </c>
-      <c r="D67" t="s">
-        <v>470</v>
-      </c>
-      <c r="E67" t="s">
-        <v>598</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -10722,27 +10795,27 @@
         <v>25</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B68" t="s">
+        <v>599</v>
+      </c>
+      <c r="C68" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" t="s">
+        <v>469</v>
+      </c>
+      <c r="E68" t="s">
         <v>600</v>
-      </c>
-      <c r="C68" t="s">
-        <v>548</v>
-      </c>
-      <c r="D68" t="s">
-        <v>470</v>
-      </c>
-      <c r="E68" t="s">
-        <v>601</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -10757,24 +10830,24 @@
         <v>25</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B69" t="s">
+        <v>602</v>
+      </c>
+      <c r="C69" t="s">
         <v>603</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>604</v>
-      </c>
-      <c r="E69" t="s">
-        <v>605</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -10783,24 +10856,30 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I69" t="s">
         <v>159</v>
       </c>
+      <c r="J69" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B70" t="s">
+        <v>607</v>
+      </c>
+      <c r="C70" t="s">
+        <v>603</v>
+      </c>
+      <c r="E70" t="s">
         <v>608</v>
-      </c>
-      <c r="C70" t="s">
-        <v>604</v>
-      </c>
-      <c r="E70" t="s">
-        <v>609</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -10809,24 +10888,30 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I70" t="s">
         <v>159</v>
       </c>
+      <c r="J70" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B71" t="s">
+        <v>610</v>
+      </c>
+      <c r="C71" t="s">
+        <v>603</v>
+      </c>
+      <c r="E71" t="s">
         <v>611</v>
-      </c>
-      <c r="C71" t="s">
-        <v>604</v>
-      </c>
-      <c r="E71" t="s">
-        <v>612</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -10835,24 +10920,30 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I71" t="s">
         <v>159</v>
       </c>
+      <c r="J71" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B72" t="s">
+        <v>613</v>
+      </c>
+      <c r="C72" t="s">
+        <v>603</v>
+      </c>
+      <c r="E72" t="s">
         <v>614</v>
-      </c>
-      <c r="C72" t="s">
-        <v>604</v>
-      </c>
-      <c r="E72" t="s">
-        <v>615</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -10861,24 +10952,30 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I72" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1">
+      <c r="J72" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B73" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C73" t="s">
+        <v>616</v>
+      </c>
+      <c r="E73" t="s">
         <v>617</v>
-      </c>
-      <c r="E73" t="s">
-        <v>618</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -10893,27 +10990,27 @@
         <v>25</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B74" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C74" t="s">
         <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E74" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -10928,24 +11025,24 @@
         <v>25</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B75" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C75" t="s">
+        <v>622</v>
+      </c>
+      <c r="E75" t="s">
         <v>623</v>
-      </c>
-      <c r="E75" t="s">
-        <v>624</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -10960,24 +11057,24 @@
         <v>159</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B76" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C76" t="s">
+        <v>625</v>
+      </c>
+      <c r="E76" t="s">
         <v>626</v>
-      </c>
-      <c r="E76" t="s">
-        <v>627</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -10992,24 +11089,24 @@
         <v>159</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B77" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C77" t="s">
+        <v>628</v>
+      </c>
+      <c r="E77" t="s">
         <v>629</v>
-      </c>
-      <c r="E77" t="s">
-        <v>630</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -11024,24 +11121,24 @@
         <v>159</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B78" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C78" t="s">
+        <v>631</v>
+      </c>
+      <c r="E78" t="s">
         <v>632</v>
-      </c>
-      <c r="E78" t="s">
-        <v>633</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -11056,24 +11153,24 @@
         <v>159</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B79" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C79" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E79" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -11088,24 +11185,24 @@
         <v>159</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B80" t="s">
+        <v>636</v>
+      </c>
+      <c r="C80" t="s">
         <v>637</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>638</v>
-      </c>
-      <c r="E80" t="s">
-        <v>639</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -11114,24 +11211,30 @@
         <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I80" t="s">
         <v>159</v>
       </c>
+      <c r="J80" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B81" t="s">
+        <v>640</v>
+      </c>
+      <c r="C81" t="s">
         <v>641</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>642</v>
-      </c>
-      <c r="E81" t="s">
-        <v>643</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -11140,27 +11243,33 @@
         <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I81" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1">
+      <c r="J81" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B82" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C82" t="s">
         <v>155</v>
       </c>
       <c r="D82" t="s">
+        <v>645</v>
+      </c>
+      <c r="E82" t="s">
         <v>646</v>
-      </c>
-      <c r="E82" t="s">
-        <v>647</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -11175,24 +11284,24 @@
         <v>25</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B83" t="s">
+        <v>648</v>
+      </c>
+      <c r="C83" t="s">
         <v>649</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>650</v>
-      </c>
-      <c r="E83" t="s">
-        <v>651</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -11206,19 +11315,25 @@
       <c r="I83" t="s">
         <v>159</v>
       </c>
+      <c r="J83" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B84" t="s">
+        <v>652</v>
+      </c>
+      <c r="C84" t="s">
+        <v>649</v>
+      </c>
+      <c r="E84" t="s">
         <v>653</v>
-      </c>
-      <c r="C84" t="s">
-        <v>650</v>
-      </c>
-      <c r="E84" t="s">
-        <v>654</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -11232,19 +11347,25 @@
       <c r="I84" t="s">
         <v>159</v>
       </c>
+      <c r="J84" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B85" t="s">
+        <v>655</v>
+      </c>
+      <c r="C85" t="s">
         <v>656</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>657</v>
-      </c>
-      <c r="E85" t="s">
-        <v>658</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
@@ -11258,19 +11379,25 @@
       <c r="I85" t="s">
         <v>159</v>
       </c>
+      <c r="J85" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B86" t="s">
+        <v>659</v>
+      </c>
+      <c r="C86" t="s">
+        <v>480</v>
+      </c>
+      <c r="E86" t="s">
         <v>660</v>
-      </c>
-      <c r="C86" t="s">
-        <v>481</v>
-      </c>
-      <c r="E86" t="s">
-        <v>661</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
@@ -11284,19 +11411,25 @@
       <c r="I86" t="s">
         <v>159</v>
       </c>
+      <c r="J86" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B87" t="s">
+        <v>662</v>
+      </c>
+      <c r="C87" t="s">
+        <v>649</v>
+      </c>
+      <c r="E87" t="s">
         <v>663</v>
-      </c>
-      <c r="C87" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" t="s">
-        <v>664</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -11310,22 +11443,28 @@
       <c r="I87" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1">
+      <c r="J87" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B88" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C88" t="s">
         <v>155</v>
       </c>
       <c r="D88" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E88" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11340,27 +11479,27 @@
         <v>25</v>
       </c>
       <c r="J88" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1">
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B89" t="s">
+        <v>667</v>
+      </c>
+      <c r="C89" t="s">
         <v>668</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>645</v>
+      </c>
+      <c r="E89" t="s">
         <v>669</v>
-      </c>
-      <c r="D89" t="s">
-        <v>646</v>
-      </c>
-      <c r="E89" t="s">
-        <v>670</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -11375,27 +11514,27 @@
         <v>25</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B90" t="s">
+        <v>671</v>
+      </c>
+      <c r="C90" t="s">
+        <v>668</v>
+      </c>
+      <c r="D90" t="s">
+        <v>645</v>
+      </c>
+      <c r="E90" t="s">
         <v>672</v>
-      </c>
-      <c r="C90" t="s">
-        <v>669</v>
-      </c>
-      <c r="D90" t="s">
-        <v>646</v>
-      </c>
-      <c r="E90" t="s">
-        <v>673</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -11410,27 +11549,27 @@
         <v>25</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B91" t="s">
+        <v>674</v>
+      </c>
+      <c r="C91" t="s">
         <v>675</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>645</v>
+      </c>
+      <c r="E91" t="s">
         <v>676</v>
-      </c>
-      <c r="D91" t="s">
-        <v>646</v>
-      </c>
-      <c r="E91" t="s">
-        <v>677</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -11445,27 +11584,27 @@
         <v>25</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B92" t="s">
+        <v>678</v>
+      </c>
+      <c r="C92" t="s">
         <v>679</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>645</v>
+      </c>
+      <c r="E92" t="s">
         <v>680</v>
-      </c>
-      <c r="D92" t="s">
-        <v>646</v>
-      </c>
-      <c r="E92" t="s">
-        <v>681</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -11480,27 +11619,27 @@
         <v>25</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B93" t="s">
+        <v>682</v>
+      </c>
+      <c r="C93" t="s">
+        <v>517</v>
+      </c>
+      <c r="D93" t="s">
+        <v>645</v>
+      </c>
+      <c r="E93" t="s">
         <v>683</v>
-      </c>
-      <c r="C93" t="s">
-        <v>518</v>
-      </c>
-      <c r="D93" t="s">
-        <v>646</v>
-      </c>
-      <c r="E93" t="s">
-        <v>684</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -11515,27 +11654,27 @@
         <v>25</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B94" t="s">
+        <v>685</v>
+      </c>
+      <c r="C94" t="s">
         <v>686</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>645</v>
+      </c>
+      <c r="E94" t="s">
         <v>687</v>
-      </c>
-      <c r="D94" t="s">
-        <v>646</v>
-      </c>
-      <c r="E94" t="s">
-        <v>688</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -11550,27 +11689,27 @@
         <v>25</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B95" t="s">
+        <v>689</v>
+      </c>
+      <c r="C95" t="s">
         <v>690</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>645</v>
+      </c>
+      <c r="E95" t="s">
         <v>691</v>
-      </c>
-      <c r="D95" t="s">
-        <v>646</v>
-      </c>
-      <c r="E95" t="s">
-        <v>692</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -11585,24 +11724,24 @@
         <v>25</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B96" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E96" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -11617,20 +11756,13 @@
         <v>25</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K96" xr:uid="{3164B3C4-164D-403B-9E9F-77D021E9ABD8}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Central Bank of the Philippines (BSP)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11691,7 +11823,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -11779,7 +11911,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
